--- a/Kelerog_master_cup_2/compo.xlsx
+++ b/Kelerog_master_cup_2/compo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joannes\Documents\Projects\Dofusdev\Tournaments-stats\Kelerog_master_cup_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joannes\Documents\Projects\Dofusdev\Tournaments-stats\Kelerog_master_cup_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B6943D-A974-445F-A40D-628CB06553A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E7409-5400-46FE-8511-4FD49935766B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
   <si>
     <t>equipe</t>
   </si>
@@ -58,169 +58,184 @@
     <t>cra</t>
   </si>
   <si>
-    <t>zobal</t>
-  </si>
-  <si>
     <t>iop</t>
   </si>
   <si>
     <t>roublard</t>
   </si>
   <si>
-    <t>scie-tronc</t>
-  </si>
-  <si>
     <t>feca</t>
   </si>
   <si>
     <t>ecaflip</t>
   </si>
   <si>
-    <t>vortex</t>
-  </si>
-  <si>
-    <t>tie un tigre</t>
-  </si>
-  <si>
     <t>eniripsa</t>
   </si>
   <si>
-    <t>seagull corp</t>
-  </si>
-  <si>
     <t>legacy</t>
   </si>
   <si>
-    <t>hagra JDA</t>
-  </si>
-  <si>
-    <t>libererchoukri</t>
-  </si>
-  <si>
-    <t>sac a foin</t>
-  </si>
-  <si>
-    <t>zitzitoun</t>
-  </si>
-  <si>
-    <t>team rs</t>
-  </si>
-  <si>
-    <t>1-2-3 soleil</t>
-  </si>
-  <si>
     <t>lost fc spec</t>
   </si>
   <si>
-    <t>S I N A L O A</t>
-  </si>
-  <si>
-    <t>la banda badouze</t>
-  </si>
-  <si>
-    <t>sans pitax</t>
-  </si>
-  <si>
-    <t>cosa nostraa</t>
-  </si>
-  <si>
-    <t>YBC</t>
-  </si>
-  <si>
-    <t>Sectum sempra</t>
-  </si>
-  <si>
-    <t>SINALOA-</t>
-  </si>
-  <si>
-    <t>les wings zerr</t>
-  </si>
-  <si>
-    <t>skypiea</t>
-  </si>
-  <si>
-    <t>choubik loubik</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>on s en fiche un peu</t>
-  </si>
-  <si>
-    <t>la bande de bourrins</t>
-  </si>
-  <si>
-    <t>marseillais allezzzzz</t>
-  </si>
-  <si>
-    <t>erreur 404</t>
-  </si>
-  <si>
-    <t>IMPACT</t>
-  </si>
-  <si>
-    <t>Noobii</t>
-  </si>
-  <si>
-    <t>WBCgang</t>
-  </si>
-  <si>
-    <t>La Distillerie du Saucisson</t>
-  </si>
-  <si>
-    <t>Koshmar</t>
-  </si>
-  <si>
-    <t>Hagra pas l'time</t>
-  </si>
-  <si>
-    <t>Full Counter</t>
-  </si>
-  <si>
-    <t>Les Lamas</t>
-  </si>
-  <si>
-    <t>Dark-sociiety</t>
-  </si>
-  <si>
-    <t>Sanction</t>
-  </si>
-  <si>
-    <t>CHAAAAAARGER</t>
-  </si>
-  <si>
-    <t>Violencia Honored</t>
-  </si>
-  <si>
-    <t>Sinaloa I</t>
-  </si>
-  <si>
-    <t>MONSTARS</t>
-  </si>
-  <si>
-    <t>Reign and Crown</t>
-  </si>
-  <si>
-    <t>Percoz</t>
-  </si>
-  <si>
-    <t>Askip</t>
-  </si>
-  <si>
-    <t>HYDRA</t>
-  </si>
-  <si>
-    <t>blkk</t>
-  </si>
-  <si>
-    <t>F-5</t>
-  </si>
-  <si>
-    <t>Random Bullshit</t>
-  </si>
-  <si>
-    <t>HAGRACKET</t>
+    <t>les lamas</t>
+  </si>
+  <si>
+    <t>hagra faucheur</t>
+  </si>
+  <si>
+    <t>zivons</t>
+  </si>
+  <si>
+    <t>sanction</t>
+  </si>
+  <si>
+    <t>full ping</t>
+  </si>
+  <si>
+    <t>l'akatsuni</t>
+  </si>
+  <si>
+    <t>hydra</t>
+  </si>
+  <si>
+    <t>moi mosh et mechant</t>
+  </si>
+  <si>
+    <t>Honored B</t>
+  </si>
+  <si>
+    <t>c'est terrible</t>
+  </si>
+  <si>
+    <t>percozition</t>
+  </si>
+  <si>
+    <t>c'est value</t>
+  </si>
+  <si>
+    <t>la vie c harr</t>
+  </si>
+  <si>
+    <t>oh pétard</t>
+  </si>
+  <si>
+    <t>elle est où la diag</t>
+  </si>
+  <si>
+    <t>après minuit</t>
+  </si>
+  <si>
+    <t>les lamas 2</t>
+  </si>
+  <si>
+    <t>les sang-liers halal</t>
+  </si>
+  <si>
+    <t>l'inévitable</t>
+  </si>
+  <si>
+    <t>le pact'ole</t>
+  </si>
+  <si>
+    <t>contrôle qualité</t>
+  </si>
+  <si>
+    <t>menace fantome</t>
+  </si>
+  <si>
+    <t>Avec tout le respect</t>
+  </si>
+  <si>
+    <t>Les affranchis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre feuille savon </t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>lamaslamaslamas</t>
+  </si>
+  <si>
+    <t>rollback</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>francix</t>
+  </si>
+  <si>
+    <t>Honored C</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>dar dyafa</t>
+  </si>
+  <si>
+    <t>touriste</t>
+  </si>
+  <si>
+    <t>gg le brr pour le dda</t>
+  </si>
+  <si>
+    <t>RS bro</t>
+  </si>
+  <si>
+    <t>la ndrangheta</t>
+  </si>
+  <si>
+    <t>los pelicanosss</t>
+  </si>
+  <si>
+    <t>Eradication</t>
+  </si>
+  <si>
+    <t>the hood</t>
+  </si>
+  <si>
+    <t>la force de la nature</t>
+  </si>
+  <si>
+    <t>Honored A</t>
+  </si>
+  <si>
+    <t>laisse nous dormir y'a zebi</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>paknouspl</t>
+  </si>
+  <si>
+    <t>légion doner</t>
+  </si>
+  <si>
+    <t>mbm</t>
+  </si>
+  <si>
+    <t>hagracket</t>
+  </si>
+  <si>
+    <t>l'eradical</t>
+  </si>
+  <si>
+    <t>[les outsiders]</t>
+  </si>
+  <si>
+    <t>tp sous pes</t>
+  </si>
+  <si>
+    <t>Dark Society</t>
+  </si>
+  <si>
+    <t>we zink</t>
   </si>
 </sst>
 </file>
@@ -564,10 +579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +593,7 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,488 +607,506 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
       <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
       <c r="D29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1084,198 +1117,198 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
         <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
